--- a/lotteryhistory.xlsx
+++ b/lotteryhistory.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colea\Google Drive\Thinkful\Thinkful_Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC7D0E9-13EE-4176-8020-AB4E285863E1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D4CD3D-7B90-4217-AF46-9BE50D21AEE9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3440" xr2:uid="{635C0F51-F4A7-44ED-9B33-DC2415E8B72B}"/>
   </bookViews>
@@ -595,8 +595,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -631,8 +631,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -949,10 +949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8328CC43-5E83-476B-A407-371A85BE10E0}">
-  <dimension ref="A1:N533"/>
+  <dimension ref="A1:R533"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="C184" sqref="C184"/>
+    <sheetView tabSelected="1" topLeftCell="B88" workbookViewId="0">
+      <selection activeCell="R101" sqref="R101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -989,11 +989,11 @@
         <v>1537</v>
       </c>
       <c r="C2">
-        <f>A2-A3</f>
+        <f t="shared" ref="C2:C33" si="0">A2-A3</f>
         <v>91</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D65" si="0">IF(C2&gt;=$E$185,1,0)</f>
+        <f t="shared" ref="D2:D65" si="1">IF(C2&gt;=$E$185,1,0)</f>
         <v>1</v>
       </c>
       <c r="F2">
@@ -1011,11 +1011,11 @@
         <v>543</v>
       </c>
       <c r="C3">
-        <f>A3-A4</f>
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F3">
@@ -1033,11 +1033,11 @@
         <v>142</v>
       </c>
       <c r="C4">
-        <f>A4-A5</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F4">
@@ -1055,11 +1055,11 @@
         <v>533</v>
       </c>
       <c r="C5">
-        <f>A5-A6</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F5">
@@ -1077,11 +1077,11 @@
         <v>451</v>
       </c>
       <c r="C6">
-        <f>A6-A7</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F6">
@@ -1099,11 +1099,11 @@
         <v>42</v>
       </c>
       <c r="C7">
-        <f>A7-A8</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F7">
@@ -1121,11 +1121,11 @@
         <v>105</v>
       </c>
       <c r="C8">
-        <f>A8-A9</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F8">
@@ -1143,11 +1143,11 @@
         <v>393</v>
       </c>
       <c r="C9">
-        <f>A9-A10</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F9">
@@ -1165,11 +1165,11 @@
         <v>61</v>
       </c>
       <c r="C10">
-        <f>A10-A11</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F10">
@@ -1187,11 +1187,11 @@
         <v>177</v>
       </c>
       <c r="C11">
-        <f>A11-A12</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F11">
@@ -1209,11 +1209,11 @@
         <v>191</v>
       </c>
       <c r="C12">
-        <f>A12-A13</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F12">
@@ -1231,11 +1231,11 @@
         <v>83</v>
       </c>
       <c r="C13">
-        <f>A13-A14</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F13">
@@ -1253,11 +1253,11 @@
         <v>49</v>
       </c>
       <c r="C14">
-        <f>A14-A15</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F14">
@@ -1275,11 +1275,11 @@
         <v>134</v>
       </c>
       <c r="C15">
-        <f>A15-A16</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F15">
@@ -1297,11 +1297,11 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <f>A16-A17</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F16">
@@ -1319,11 +1319,11 @@
         <v>25</v>
       </c>
       <c r="C17">
-        <f>A17-A18</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F17">
@@ -1341,11 +1341,11 @@
         <v>536</v>
       </c>
       <c r="C18">
-        <f>A18-A19</f>
+        <f t="shared" si="0"/>
         <v>122</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F18">
@@ -1363,11 +1363,11 @@
         <v>157</v>
       </c>
       <c r="C19">
-        <f>A19-A20</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F19">
@@ -1385,11 +1385,11 @@
         <v>169</v>
       </c>
       <c r="C20">
-        <f>A20-A21</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F20">
@@ -1407,11 +1407,11 @@
         <v>202</v>
       </c>
       <c r="C21">
-        <f>A21-A22</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F21">
@@ -1429,11 +1429,11 @@
         <v>106</v>
       </c>
       <c r="C22">
-        <f>A22-A23</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F22">
@@ -1451,11 +1451,11 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <f>A23-A24</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F23">
@@ -1473,11 +1473,11 @@
         <v>153</v>
       </c>
       <c r="C24">
-        <f>A24-A25</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F24">
@@ -1495,11 +1495,11 @@
         <v>262</v>
       </c>
       <c r="C25">
-        <f>A25-A26</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F25">
@@ -1517,11 +1517,11 @@
         <v>58</v>
       </c>
       <c r="C26">
-        <f>A26-A27</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F26">
@@ -1539,11 +1539,11 @@
         <v>126</v>
       </c>
       <c r="C27">
-        <f>A27-A28</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F27">
@@ -1561,11 +1561,11 @@
         <v>265</v>
       </c>
       <c r="C28">
-        <f>A28-A29</f>
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F28">
@@ -1583,11 +1583,11 @@
         <v>326</v>
       </c>
       <c r="C29">
-        <f>A29-A30</f>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F29">
@@ -1605,11 +1605,11 @@
         <v>180</v>
       </c>
       <c r="C30">
-        <f>A30-A31</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F30">
@@ -1627,11 +1627,11 @@
         <v>33</v>
       </c>
       <c r="C31">
-        <f>A31-A32</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F31">
@@ -1649,11 +1649,11 @@
         <v>66</v>
       </c>
       <c r="C32">
-        <f>A32-A33</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F32">
@@ -1671,11 +1671,11 @@
         <v>149</v>
       </c>
       <c r="C33">
-        <f>A33-A34</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F33">
@@ -1693,11 +1693,11 @@
         <v>30</v>
       </c>
       <c r="C34">
-        <f>A34-A35</f>
+        <f t="shared" ref="C34:C65" si="2">A34-A35</f>
         <v>10</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F34">
@@ -1715,11 +1715,11 @@
         <v>20</v>
       </c>
       <c r="C35">
-        <f>A35-A36</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F35">
@@ -1737,11 +1737,11 @@
         <v>414</v>
       </c>
       <c r="C36">
-        <f>A36-A37</f>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F36">
@@ -1759,11 +1759,11 @@
         <v>61</v>
       </c>
       <c r="C37">
-        <f>A37-A38</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="D37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F37">
@@ -1781,11 +1781,11 @@
         <v>648</v>
       </c>
       <c r="C38">
-        <f>A38-A39</f>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F38">
@@ -1803,11 +1803,11 @@
         <v>189</v>
       </c>
       <c r="C39">
-        <f>A39-A40</f>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="D39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F39">
@@ -1825,11 +1825,11 @@
         <v>19</v>
       </c>
       <c r="C40">
-        <f>A40-A41</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="D40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F40">
@@ -1847,11 +1847,11 @@
         <v>20</v>
       </c>
       <c r="C41">
-        <f>A41-A42</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="D41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F41">
@@ -1869,11 +1869,11 @@
         <v>80</v>
       </c>
       <c r="C42">
-        <f>A42-A43</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="D42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F42">
@@ -1891,11 +1891,11 @@
         <v>30</v>
       </c>
       <c r="C43">
-        <f>A43-A44</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="D43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F43">
@@ -1913,11 +1913,11 @@
         <v>198</v>
       </c>
       <c r="C44">
-        <f>A44-A45</f>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="D44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F44">
@@ -1935,11 +1935,11 @@
         <v>41</v>
       </c>
       <c r="C45">
-        <f>A45-A46</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="D45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F45">
@@ -1957,11 +1957,11 @@
         <v>26</v>
       </c>
       <c r="C46">
-        <f>A46-A47</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="D46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F46">
@@ -1979,11 +1979,11 @@
         <v>19</v>
       </c>
       <c r="C47">
-        <f>A47-A48</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="D47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F47">
@@ -2001,11 +2001,11 @@
         <v>89</v>
       </c>
       <c r="C48">
-        <f>A48-A49</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="D48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F48">
@@ -2023,11 +2023,11 @@
         <v>35</v>
       </c>
       <c r="C49">
-        <f>A49-A50</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="D49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F49">
@@ -2045,11 +2045,11 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <f>A50-A51</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="D50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F50">
@@ -2067,11 +2067,11 @@
         <v>33</v>
       </c>
       <c r="C51">
-        <f>A51-A52</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="D51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F51">
@@ -2089,11 +2089,11 @@
         <v>61</v>
       </c>
       <c r="C52">
-        <f>A52-A53</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="D52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F52">
@@ -2111,11 +2111,11 @@
         <v>14</v>
       </c>
       <c r="C53">
-        <f>A53-A54</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="D53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F53">
@@ -2133,11 +2133,11 @@
         <v>120</v>
       </c>
       <c r="C54">
-        <f>A54-A55</f>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="D54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F54">
@@ -2155,11 +2155,11 @@
         <v>52</v>
       </c>
       <c r="C55">
-        <f>A55-A56</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="D55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F55">
@@ -2177,11 +2177,11 @@
         <v>85</v>
       </c>
       <c r="C56">
-        <f>A56-A57</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="D56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F56">
@@ -2199,11 +2199,11 @@
         <v>32</v>
       </c>
       <c r="C57">
-        <f>A57-A58</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="D57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F57">
@@ -2221,11 +2221,11 @@
         <v>25</v>
       </c>
       <c r="C58">
-        <f>A58-A59</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="D58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F58">
@@ -2243,11 +2243,11 @@
         <v>118</v>
       </c>
       <c r="C59">
-        <f>A59-A60</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="D59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F59">
@@ -2265,11 +2265,11 @@
         <v>656</v>
       </c>
       <c r="C60">
-        <f>A60-A61</f>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="D60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F60">
@@ -2287,11 +2287,11 @@
         <v>72</v>
       </c>
       <c r="C61">
-        <f>A61-A62</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="D61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F61">
@@ -2309,11 +2309,11 @@
         <v>208</v>
       </c>
       <c r="C62">
-        <f>A62-A63</f>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="D62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F62">
@@ -2331,11 +2331,11 @@
         <v>78</v>
       </c>
       <c r="C63">
-        <f>A63-A64</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="D63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F63">
@@ -2353,11 +2353,11 @@
         <v>113</v>
       </c>
       <c r="C64">
-        <f>A64-A65</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="D64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F64">
@@ -2375,11 +2375,11 @@
         <v>32</v>
       </c>
       <c r="C65">
-        <f>A65-A66</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="D65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F65">
@@ -2397,11 +2397,11 @@
         <v>99</v>
       </c>
       <c r="C66">
-        <f>A66-A67</f>
+        <f t="shared" ref="C66:C97" si="3">A66-A67</f>
         <v>35</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D129" si="1">IF(C66&gt;=$E$185,1,0)</f>
+        <f t="shared" ref="D66:D129" si="4">IF(C66&gt;=$E$185,1,0)</f>
         <v>0</v>
       </c>
       <c r="F66">
@@ -2419,11 +2419,11 @@
         <v>107</v>
       </c>
       <c r="C67">
-        <f>A67-A68</f>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="D67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F67">
@@ -2441,11 +2441,11 @@
         <v>35</v>
       </c>
       <c r="C68">
-        <f>A68-A69</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="D68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F68">
@@ -2463,11 +2463,11 @@
         <v>27</v>
       </c>
       <c r="C69">
-        <f>A69-A70</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="D69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F69">
@@ -2485,11 +2485,11 @@
         <v>51</v>
       </c>
       <c r="C70">
-        <f>A70-A71</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="D70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F70">
@@ -2507,11 +2507,11 @@
         <v>72</v>
       </c>
       <c r="C71">
-        <f>A71-A72</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="D71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F71">
@@ -2529,11 +2529,11 @@
         <v>319</v>
       </c>
       <c r="C72">
-        <f>A72-A73</f>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="D72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F72">
@@ -2551,11 +2551,11 @@
         <v>93</v>
       </c>
       <c r="C73">
-        <f>A73-A74</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="D73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F73">
@@ -2573,11 +2573,11 @@
         <v>380</v>
       </c>
       <c r="C74">
-        <f>A74-A75</f>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="D74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F74">
@@ -2595,11 +2595,11 @@
         <v>25</v>
       </c>
       <c r="C75">
-        <f>A75-A76</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="D75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F75">
@@ -2617,11 +2617,11 @@
         <v>141</v>
       </c>
       <c r="C76">
-        <f>A76-A77</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="D76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F76">
@@ -2639,11 +2639,11 @@
         <v>54</v>
       </c>
       <c r="C77">
-        <f>A77-A78</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="D77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F77">
@@ -2661,11 +2661,11 @@
         <v>135</v>
       </c>
       <c r="C78">
-        <f>A78-A79</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="D78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F78">
@@ -2683,11 +2683,11 @@
         <v>64</v>
       </c>
       <c r="C79">
-        <f>A79-A80</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="D79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F79">
@@ -2705,11 +2705,11 @@
         <v>26</v>
       </c>
       <c r="C80">
-        <f>A80-A81</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="D80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F80">
@@ -2727,11 +2727,11 @@
         <v>36</v>
       </c>
       <c r="C81">
-        <f>A81-A82</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="D81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F81">
@@ -2749,11 +2749,11 @@
         <v>12</v>
       </c>
       <c r="C82">
-        <f>A82-A83</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="D82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F82">
@@ -2771,11 +2771,11 @@
         <v>64</v>
       </c>
       <c r="C83">
-        <f>A83-A84</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="D83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F83">
@@ -2793,11 +2793,11 @@
         <v>266</v>
       </c>
       <c r="C84">
-        <f>A84-A85</f>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="D84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F84">
@@ -2815,11 +2815,11 @@
         <v>20</v>
       </c>
       <c r="C85">
-        <f>A85-A86</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="D85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F85">
@@ -2837,11 +2837,11 @@
         <v>134</v>
       </c>
       <c r="C86">
-        <f>A86-A87</f>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="D86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F86">
@@ -2859,11 +2859,11 @@
         <v>144</v>
       </c>
       <c r="C87">
-        <f>A87-A88</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="D87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F87">
@@ -2881,11 +2881,11 @@
         <v>165</v>
       </c>
       <c r="C88">
-        <f>A88-A89</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="D88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F88">
@@ -2903,11 +2903,11 @@
         <v>77</v>
       </c>
       <c r="C89">
-        <f>A89-A90</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="D89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F89">
@@ -2925,11 +2925,11 @@
         <v>200</v>
       </c>
       <c r="C90">
-        <f>A90-A91</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="D90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F90">
@@ -2947,11 +2947,11 @@
         <v>12</v>
       </c>
       <c r="C91">
-        <f>A91-A92</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F91">
@@ -2969,11 +2969,11 @@
         <v>336</v>
       </c>
       <c r="C92">
-        <f>A92-A93</f>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="D92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F92">
@@ -2991,11 +2991,11 @@
         <v>133</v>
       </c>
       <c r="C93">
-        <f>A93-A94</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="D93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F93">
@@ -3013,11 +3013,11 @@
         <v>35</v>
       </c>
       <c r="C94">
-        <f>A94-A95</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="D94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F94">
@@ -3035,11 +3035,11 @@
         <v>38</v>
       </c>
       <c r="C95">
-        <f>A95-A96</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="D95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F95">
@@ -3057,11 +3057,11 @@
         <v>227</v>
       </c>
       <c r="C96">
-        <f>A96-A97</f>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="D96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F96">
@@ -3071,7 +3071,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>39885</v>
       </c>
@@ -3079,11 +3079,11 @@
         <v>26</v>
       </c>
       <c r="C97">
-        <f>A97-A98</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="D97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F97">
@@ -3093,7 +3093,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>39875</v>
       </c>
@@ -3101,11 +3101,11 @@
         <v>216</v>
       </c>
       <c r="C98">
-        <f>A98-A99</f>
+        <f t="shared" ref="C98:C129" si="5">A98-A99</f>
         <v>49</v>
       </c>
       <c r="D98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F98">
@@ -3115,7 +3115,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>39826</v>
       </c>
@@ -3123,11 +3123,11 @@
         <v>22</v>
       </c>
       <c r="C99">
-        <f>A99-A100</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="D99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F99">
@@ -3137,7 +3137,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>39815</v>
       </c>
@@ -3145,11 +3145,11 @@
         <v>47</v>
       </c>
       <c r="C100">
-        <f>A100-A101</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="D100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F100">
@@ -3159,7 +3159,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>39794</v>
       </c>
@@ -3167,11 +3167,11 @@
         <v>207</v>
       </c>
       <c r="C101">
-        <f>A101-A102</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="D101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F101">
@@ -3180,8 +3180,12 @@
       <c r="I101" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="R101">
+        <f>0.73^-1</f>
+        <v>1.3698630136986301</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>39742</v>
       </c>
@@ -3189,11 +3193,11 @@
         <v>42</v>
       </c>
       <c r="C102">
-        <f>A102-A103</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="D102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F102">
@@ -3203,7 +3207,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>39724</v>
       </c>
@@ -3211,11 +3215,11 @@
         <v>42</v>
       </c>
       <c r="C103">
-        <f>A103-A104</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F103">
@@ -3225,7 +3229,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>39707</v>
       </c>
@@ -3233,11 +3237,11 @@
         <v>15</v>
       </c>
       <c r="C104">
-        <f>A104-A105</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="D104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F104">
@@ -3247,7 +3251,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>39700</v>
       </c>
@@ -3255,11 +3259,11 @@
         <v>24</v>
       </c>
       <c r="C105">
-        <f>A105-A106</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="D105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F105">
@@ -3269,7 +3273,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>39689</v>
       </c>
@@ -3277,11 +3281,11 @@
         <v>133</v>
       </c>
       <c r="C106">
-        <f>A106-A107</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="D106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F106">
@@ -3291,7 +3295,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>39651</v>
       </c>
@@ -3299,11 +3303,11 @@
         <v>126</v>
       </c>
       <c r="C107">
-        <f>A107-A108</f>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="D107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F107">
@@ -3313,7 +3317,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>39612</v>
       </c>
@@ -3321,11 +3325,11 @@
         <v>57</v>
       </c>
       <c r="C108">
-        <f>A108-A109</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="D108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F108">
@@ -3335,7 +3339,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>39591</v>
       </c>
@@ -3343,11 +3347,11 @@
         <v>17</v>
       </c>
       <c r="C109">
-        <f>A109-A110</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="D109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F109">
@@ -3357,7 +3361,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>39584</v>
       </c>
@@ -3365,11 +3369,11 @@
         <v>196</v>
       </c>
       <c r="C110">
-        <f>A110-A111</f>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="D110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F110">
@@ -3379,7 +3383,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>39539</v>
       </c>
@@ -3387,11 +3391,11 @@
         <v>136</v>
       </c>
       <c r="C111">
-        <f>A111-A112</f>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="D111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F111">
@@ -3401,7 +3405,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>39500</v>
       </c>
@@ -3409,11 +3413,11 @@
         <v>275</v>
       </c>
       <c r="C112">
-        <f>A112-A113</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="D112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F112">
@@ -3431,11 +3435,11 @@
         <v>33</v>
       </c>
       <c r="C113">
-        <f>A113-A114</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="D113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F113">
@@ -3453,11 +3457,11 @@
         <v>163</v>
       </c>
       <c r="C114">
-        <f>A114-A115</f>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="D114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F114">
@@ -3475,11 +3479,11 @@
         <v>75</v>
       </c>
       <c r="C115">
-        <f>A115-A116</f>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="D115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F115">
@@ -3497,11 +3501,11 @@
         <v>27</v>
       </c>
       <c r="C116">
-        <f>A116-A117</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="D116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F116">
@@ -3519,11 +3523,11 @@
         <v>12</v>
       </c>
       <c r="C117">
-        <f>A117-A118</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="D117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F117">
@@ -3541,11 +3545,11 @@
         <v>61</v>
       </c>
       <c r="C118">
-        <f>A118-A119</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="D118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F118">
@@ -3563,11 +3567,11 @@
         <v>330</v>
       </c>
       <c r="C119">
-        <f>A119-A120</f>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F119">
@@ -3585,11 +3589,11 @@
         <v>128</v>
       </c>
       <c r="C120">
-        <f>A120-A121</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="D120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F120">
@@ -3607,11 +3611,11 @@
         <v>44</v>
       </c>
       <c r="C121">
-        <f>A121-A122</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="D121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F121">
@@ -3629,11 +3633,11 @@
         <v>113</v>
       </c>
       <c r="C122">
-        <f>A122-A123</f>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="D122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F122">
@@ -3651,11 +3655,11 @@
         <v>105</v>
       </c>
       <c r="C123">
-        <f>A123-A124</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="D123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F123">
@@ -3673,11 +3677,11 @@
         <v>390</v>
       </c>
       <c r="C124">
-        <f>A124-A125</f>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F124">
@@ -3695,11 +3699,11 @@
         <v>125</v>
       </c>
       <c r="C125">
-        <f>A125-A126</f>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="D125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F125">
@@ -3717,11 +3721,11 @@
         <v>40</v>
       </c>
       <c r="C126">
-        <f>A126-A127</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F126">
@@ -3739,11 +3743,11 @@
         <v>75</v>
       </c>
       <c r="C127">
-        <f>A127-A128</f>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="D127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F127">
@@ -3761,11 +3765,11 @@
         <v>55</v>
       </c>
       <c r="C128">
-        <f>A128-A129</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="D128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F128">
@@ -3783,11 +3787,11 @@
         <v>15</v>
       </c>
       <c r="C129">
-        <f>A129-A130</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="D129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F129">
@@ -3805,11 +3809,11 @@
         <v>12</v>
       </c>
       <c r="C130">
-        <f>A130-A131</f>
+        <f t="shared" ref="C130:C161" si="6">A130-A131</f>
         <v>4</v>
       </c>
       <c r="D130">
-        <f t="shared" ref="D130:D180" si="2">IF(C130&gt;=$E$185,1,0)</f>
+        <f t="shared" ref="D130:D180" si="7">IF(C130&gt;=$E$185,1,0)</f>
         <v>0</v>
       </c>
       <c r="F130">
@@ -3827,11 +3831,11 @@
         <v>163</v>
       </c>
       <c r="C131">
-        <f>A131-A132</f>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="D131">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F131">
@@ -3849,11 +3853,11 @@
         <v>31</v>
       </c>
       <c r="C132">
-        <f>A132-A133</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="D132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F132">
@@ -3871,11 +3875,11 @@
         <v>49</v>
       </c>
       <c r="C133">
-        <f>A133-A134</f>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="D133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F133">
@@ -3893,11 +3897,11 @@
         <v>24</v>
       </c>
       <c r="C134">
-        <f>A134-A135</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="D134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F134">
@@ -3915,11 +3919,11 @@
         <v>35</v>
       </c>
       <c r="C135">
-        <f>A135-A136</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="D135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F135">
@@ -3937,11 +3941,11 @@
         <v>47</v>
       </c>
       <c r="C136">
-        <f>A136-A137</f>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="D136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F136">
@@ -3959,11 +3963,11 @@
         <v>94</v>
       </c>
       <c r="C137">
-        <f>A137-A138</f>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="D137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F137">
@@ -3981,11 +3985,11 @@
         <v>265</v>
       </c>
       <c r="C138">
-        <f>A138-A139</f>
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
       <c r="D138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F138">
@@ -4003,11 +4007,11 @@
         <v>270</v>
       </c>
       <c r="C139">
-        <f>A139-A140</f>
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="D139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F139">
@@ -4025,11 +4029,11 @@
         <v>15</v>
       </c>
       <c r="C140">
-        <f>A140-A141</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="D140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F140">
@@ -4047,11 +4051,11 @@
         <v>88</v>
       </c>
       <c r="C141">
-        <f>A141-A142</f>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="D141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F141">
@@ -4069,11 +4073,11 @@
         <v>35</v>
       </c>
       <c r="C142">
-        <f>A142-A143</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="D142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F142">
@@ -4091,11 +4095,11 @@
         <v>315</v>
       </c>
       <c r="C143">
-        <f>A143-A144</f>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="D143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F143">
@@ -4113,11 +4117,11 @@
         <v>258</v>
       </c>
       <c r="C144">
-        <f>A144-A145</f>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="D144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F144">
@@ -4135,11 +4139,11 @@
         <v>170</v>
       </c>
       <c r="C145">
-        <f>A145-A146</f>
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
       <c r="D145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F145">
@@ -4157,11 +4161,11 @@
         <v>106</v>
       </c>
       <c r="C146">
-        <f>A146-A147</f>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
       <c r="D146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F146">
@@ -4179,11 +4183,11 @@
         <v>208</v>
       </c>
       <c r="C147">
-        <f>A147-A148</f>
+        <f t="shared" si="6"/>
         <v>52</v>
       </c>
       <c r="D147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F147">
@@ -4201,11 +4205,11 @@
         <v>115</v>
       </c>
       <c r="C148">
-        <f>A148-A149</f>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
       <c r="D148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F148">
@@ -4223,11 +4227,11 @@
         <v>131</v>
       </c>
       <c r="C149">
-        <f>A149-A150</f>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
       <c r="D149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F149">
@@ -4245,11 +4249,11 @@
         <v>25</v>
       </c>
       <c r="C150">
-        <f>A150-A151</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="D150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F150">
@@ -4267,11 +4271,11 @@
         <v>149</v>
       </c>
       <c r="C151">
-        <f>A151-A152</f>
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
       <c r="D151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F151">
@@ -4289,11 +4293,11 @@
         <v>106</v>
       </c>
       <c r="C152">
-        <f>A152-A153</f>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
       <c r="D152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F152">
@@ -4311,11 +4315,11 @@
         <v>52</v>
       </c>
       <c r="C153">
-        <f>A153-A154</f>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="D153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F153">
@@ -4333,11 +4337,11 @@
         <v>10</v>
       </c>
       <c r="C154">
-        <f>A154-A155</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="D154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F154">
@@ -4355,11 +4359,11 @@
         <v>47</v>
       </c>
       <c r="C155">
-        <f>A155-A156</f>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="D155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F155">
@@ -4377,11 +4381,11 @@
         <v>294</v>
       </c>
       <c r="C156">
-        <f>A156-A157</f>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="D156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F156">
@@ -4399,11 +4403,11 @@
         <v>67</v>
       </c>
       <c r="C157">
-        <f>A157-A158</f>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="D157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F157">
@@ -4421,11 +4425,11 @@
         <v>109</v>
       </c>
       <c r="C158">
-        <f>A158-A159</f>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="D158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F158">
@@ -4443,11 +4447,11 @@
         <v>21</v>
       </c>
       <c r="C159">
-        <f>A159-A160</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="D159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F159">
@@ -4465,11 +4469,11 @@
         <v>239</v>
       </c>
       <c r="C160">
-        <f>A160-A161</f>
+        <f t="shared" si="6"/>
         <v>52</v>
       </c>
       <c r="D160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F160">
@@ -4487,11 +4491,11 @@
         <v>162</v>
       </c>
       <c r="C161">
-        <f>A161-A162</f>
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
       <c r="D161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F161">
@@ -4509,11 +4513,11 @@
         <v>70</v>
       </c>
       <c r="C162">
-        <f>A162-A163</f>
+        <f t="shared" ref="C162:C180" si="8">A162-A163</f>
         <v>35</v>
       </c>
       <c r="D162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E162">
@@ -4534,11 +4538,11 @@
         <v>12</v>
       </c>
       <c r="C163">
-        <f>A163-A164</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="D163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F163">
@@ -4556,11 +4560,11 @@
         <v>150</v>
       </c>
       <c r="C164">
-        <f>A164-A165</f>
+        <f t="shared" si="8"/>
         <v>53</v>
       </c>
       <c r="D164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F164">
@@ -4578,11 +4582,11 @@
         <v>50</v>
       </c>
       <c r="C165">
-        <f>A165-A166</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="D165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F165">
@@ -4600,11 +4604,11 @@
         <v>34</v>
       </c>
       <c r="C166">
-        <f>A166-A167</f>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="D166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F166">
@@ -4622,11 +4626,11 @@
         <v>183</v>
       </c>
       <c r="C167">
-        <f>A167-A168</f>
+        <f t="shared" si="8"/>
         <v>56</v>
       </c>
       <c r="D167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F167">
@@ -4644,11 +4648,11 @@
         <v>46</v>
       </c>
       <c r="C168">
-        <f>A168-A169</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="D168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F168">
@@ -4666,11 +4670,11 @@
         <v>20</v>
       </c>
       <c r="C169">
-        <f>A169-A170</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="D169">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F169">
@@ -4688,11 +4692,11 @@
         <v>43</v>
       </c>
       <c r="C170">
-        <f>A170-A171</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="D170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F170">
@@ -4710,11 +4714,11 @@
         <v>12</v>
       </c>
       <c r="C171">
-        <f>A171-A172</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="D171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F171">
@@ -4732,11 +4736,11 @@
         <v>128</v>
       </c>
       <c r="C172">
-        <f>A172-A173</f>
+        <f t="shared" si="8"/>
         <v>49</v>
       </c>
       <c r="D172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F172">
@@ -4754,11 +4758,11 @@
         <v>68</v>
       </c>
       <c r="C173">
-        <f>A173-A174</f>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="D173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F173">
@@ -4776,11 +4780,11 @@
         <v>16</v>
       </c>
       <c r="C174">
-        <f>A174-A175</f>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="D174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F174">
@@ -4798,11 +4802,11 @@
         <v>93</v>
       </c>
       <c r="C175">
-        <f>A175-A176</f>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
       <c r="D175">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F175">
@@ -4820,11 +4824,11 @@
         <v>37</v>
       </c>
       <c r="C176">
-        <f>A176-A177</f>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="D176">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F176">
@@ -4842,11 +4846,11 @@
         <v>17</v>
       </c>
       <c r="C177">
-        <f>A177-A178</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="D177">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F177">
@@ -4864,11 +4868,11 @@
         <v>108</v>
       </c>
       <c r="C178">
-        <f>A178-A179</f>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
       <c r="D178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F178">
@@ -4886,11 +4890,11 @@
         <v>165</v>
       </c>
       <c r="C179">
-        <f>A179-A180</f>
+        <f t="shared" si="8"/>
         <v>53</v>
       </c>
       <c r="D179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F179">
@@ -4908,11 +4912,11 @@
         <v>12</v>
       </c>
       <c r="C180">
-        <f>A180-A181</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="D180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F180">
@@ -5061,7 +5065,7 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" s="5">
-        <f t="shared" ref="A197:A260" si="3">A196+0.01</f>
+        <f t="shared" ref="A197:A260" si="9">A196+0.01</f>
         <v>0.03</v>
       </c>
       <c r="C197">
@@ -5071,1019 +5075,1019 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.04</v>
       </c>
       <c r="B198" s="3">
         <v>0.98333333333333328</v>
       </c>
       <c r="C198">
-        <f t="shared" ref="C198:C261" si="4">C197+1</f>
+        <f t="shared" ref="C198:C261" si="10">C197+1</f>
         <v>4</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
       <c r="B199" s="3">
         <v>0.96111111111111114</v>
       </c>
       <c r="C199">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="C200">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C201">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.08</v>
       </c>
       <c r="B202">
         <v>0.90555555555555556</v>
       </c>
       <c r="C202">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.09</v>
       </c>
       <c r="C203">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="C204">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.10999999999999999</v>
       </c>
       <c r="B205">
         <v>0.8666666666666667</v>
       </c>
       <c r="C205">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.11999999999999998</v>
       </c>
       <c r="B206">
         <v>0.80555555555555558</v>
       </c>
       <c r="C206">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.12999999999999998</v>
       </c>
       <c r="C207">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.13999999999999999</v>
       </c>
       <c r="C208">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.15</v>
       </c>
       <c r="B209">
         <v>0.72222222222222221</v>
       </c>
       <c r="C209">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.16</v>
       </c>
       <c r="C210">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.17</v>
       </c>
       <c r="C211">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.18000000000000002</v>
       </c>
       <c r="B212">
         <v>0.68888888888888888</v>
       </c>
       <c r="C212">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.19000000000000003</v>
       </c>
       <c r="B213">
         <v>0.67222222222222228</v>
       </c>
       <c r="C213">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>19</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.20000000000000004</v>
       </c>
       <c r="C214">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.21000000000000005</v>
       </c>
       <c r="C215">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.22000000000000006</v>
       </c>
       <c r="B216">
         <v>0.6</v>
       </c>
       <c r="C216">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.23000000000000007</v>
       </c>
       <c r="C217">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.24000000000000007</v>
       </c>
       <c r="C218">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.25000000000000006</v>
       </c>
       <c r="B219">
         <v>0.57222222222222219</v>
       </c>
       <c r="C219">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.26000000000000006</v>
       </c>
       <c r="B220">
         <v>0.55000000000000004</v>
       </c>
       <c r="C220">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.27000000000000007</v>
       </c>
       <c r="C221">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.28000000000000008</v>
       </c>
       <c r="C222">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.29000000000000009</v>
       </c>
       <c r="B223">
         <v>0.49444444444444446</v>
       </c>
       <c r="C223">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>29</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.3000000000000001</v>
       </c>
       <c r="C224">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.31000000000000011</v>
       </c>
       <c r="C225">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.32000000000000012</v>
       </c>
       <c r="B226">
         <v>0.48333333333333334</v>
       </c>
       <c r="C226">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.33000000000000013</v>
       </c>
       <c r="B227">
         <v>0.4777777777777778</v>
       </c>
       <c r="C227">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>33</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.34000000000000014</v>
       </c>
       <c r="C228">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>34</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.35000000000000014</v>
       </c>
       <c r="C229">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.36000000000000015</v>
       </c>
       <c r="B230">
         <v>0.42222222222222222</v>
       </c>
       <c r="C230">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.37000000000000016</v>
       </c>
       <c r="C231">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>37</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.38000000000000017</v>
       </c>
       <c r="C232">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>38</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.39000000000000018</v>
       </c>
       <c r="B233">
         <v>0.39444444444444443</v>
       </c>
       <c r="C233">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>39</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.40000000000000019</v>
       </c>
       <c r="C234">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.4100000000000002</v>
       </c>
       <c r="C235">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>41</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.42000000000000021</v>
       </c>
       <c r="C236">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>42</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.43000000000000022</v>
       </c>
       <c r="C237">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>43</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.44000000000000022</v>
       </c>
       <c r="C238">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>44</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.45000000000000023</v>
       </c>
       <c r="C239">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.46000000000000024</v>
       </c>
       <c r="C240">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>46</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.47000000000000025</v>
       </c>
       <c r="C241">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>47</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.48000000000000026</v>
       </c>
       <c r="C242">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.49000000000000027</v>
       </c>
       <c r="C243">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>49</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.50000000000000022</v>
       </c>
       <c r="C244">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.51000000000000023</v>
       </c>
       <c r="C245">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>51</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.52000000000000024</v>
       </c>
       <c r="C246">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>52</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.53000000000000025</v>
       </c>
       <c r="C247">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>53</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.54000000000000026</v>
       </c>
       <c r="C248">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>54</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.55000000000000027</v>
       </c>
       <c r="C249">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>55</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.56000000000000028</v>
       </c>
       <c r="C250">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>56</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.57000000000000028</v>
       </c>
       <c r="C251">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>57</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.58000000000000029</v>
       </c>
       <c r="C252">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>58</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5900000000000003</v>
       </c>
       <c r="C253">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>59</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.60000000000000031</v>
       </c>
       <c r="C254">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.61000000000000032</v>
       </c>
       <c r="C255">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>61</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.62000000000000033</v>
       </c>
       <c r="C256">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>62</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.63000000000000034</v>
       </c>
       <c r="C257">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>63</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.64000000000000035</v>
       </c>
       <c r="C258">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>64</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.65000000000000036</v>
       </c>
       <c r="C259">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>65</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.66000000000000036</v>
       </c>
       <c r="C260">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>66</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" s="5">
-        <f t="shared" ref="A261:A324" si="5">A260+0.01</f>
+        <f t="shared" ref="A261:A294" si="11">A260+0.01</f>
         <v>0.67000000000000037</v>
       </c>
       <c r="C261">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>67</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.68000000000000038</v>
       </c>
       <c r="C262">
-        <f t="shared" ref="C262:C294" si="6">C261+1</f>
+        <f t="shared" ref="C262:C294" si="12">C261+1</f>
         <v>68</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.69000000000000039</v>
       </c>
       <c r="C263">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>69</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.7000000000000004</v>
       </c>
       <c r="C264">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>70</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.71000000000000041</v>
       </c>
       <c r="C265">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>71</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.72000000000000042</v>
       </c>
       <c r="C266">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>72</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.73000000000000043</v>
       </c>
       <c r="C267">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>73</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.74000000000000044</v>
       </c>
       <c r="C268">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>74</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.75000000000000044</v>
       </c>
       <c r="C269">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>75</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.76000000000000045</v>
       </c>
       <c r="C270">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>76</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.77000000000000046</v>
       </c>
       <c r="C271">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>77</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.78000000000000047</v>
       </c>
       <c r="C272">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>78</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.79000000000000048</v>
       </c>
       <c r="C273">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>79</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.80000000000000049</v>
       </c>
       <c r="C274">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.8100000000000005</v>
       </c>
       <c r="C275">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>81</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.82000000000000051</v>
       </c>
       <c r="C276">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>82</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.83000000000000052</v>
       </c>
       <c r="C277">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>83</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.84000000000000052</v>
       </c>
       <c r="C278">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>84</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.85000000000000053</v>
       </c>
       <c r="C279">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>85</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.86000000000000054</v>
       </c>
       <c r="C280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>86</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.87000000000000055</v>
       </c>
       <c r="C281">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>87</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.88000000000000056</v>
       </c>
       <c r="C282">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>88</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.89000000000000057</v>
       </c>
       <c r="C283">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>89</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.90000000000000058</v>
       </c>
       <c r="C284">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>90</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.91000000000000059</v>
       </c>
       <c r="C285">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>91</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.9200000000000006</v>
       </c>
       <c r="C286">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>92</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.9300000000000006</v>
       </c>
       <c r="C287">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>93</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.94000000000000061</v>
       </c>
       <c r="C288">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>94</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A289" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.95000000000000062</v>
       </c>
       <c r="C289">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>95</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A290" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.96000000000000063</v>
       </c>
       <c r="C290">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>96</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A291" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.97000000000000064</v>
       </c>
       <c r="C291">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>97</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A292" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.98000000000000065</v>
       </c>
       <c r="C292">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>98</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A293" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.99000000000000066</v>
       </c>
       <c r="C293">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>99</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A294" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.0000000000000007</v>
       </c>
       <c r="C294">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
